--- a/data_card/card_point.xlsx
+++ b/data_card/card_point.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\code-game\data_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E310DC6D-805C-4892-9FA7-E947AFDDCFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9091EE-E5B3-4F8C-8CF0-ADB10EB262EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{17C98E44-E2A9-483E-99F4-B20D5BB669B7}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>card_point</t>
   </si>
   <si>
-    <t>0-2-0-4</t>
-  </si>
-  <si>
     <t>0-0-2-2</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>ponit</t>
+  </si>
+  <si>
+    <t>0-2-0-3</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C8D37-704F-43A2-83DD-828B9D02DFEC}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,12 +517,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>15</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>18</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>14</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>11</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>9</v>
